--- a/data/Subset1_WithDialogActs/Math NL1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math NL1 transcript.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4511,12 +4511,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4985,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5287,12 +5287,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5329,12 +5329,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5455,12 +5455,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6341,12 +6341,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7693,12 +7693,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7907,12 +7907,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7995,12 +7995,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8205,12 +8205,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8919,12 +8919,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9385,12 +9385,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9855,12 +9855,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10107,12 +10107,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10401,12 +10401,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10699,12 +10699,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10825,12 +10825,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10909,12 +10909,12 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11035,12 +11035,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11749,12 +11749,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11959,12 +11959,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12047,12 +12047,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12383,12 +12383,12 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12467,12 +12467,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12593,12 +12593,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12635,12 +12635,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12723,12 +12723,12 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12891,12 +12891,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13365,12 +13365,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13407,12 +13407,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13659,12 +13659,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14121,12 +14121,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14793,12 +14793,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16263,12 +16263,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16981,12 +16981,12 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17703,12 +17703,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18421,12 +18421,12 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18631,12 +18631,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19177,12 +19177,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19223,12 +19223,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19475,12 +19475,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19895,12 +19895,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20617,12 +20617,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20827,12 +20827,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20869,12 +20869,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21079,12 +21079,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21545,12 +21545,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21629,12 +21629,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21965,12 +21965,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22427,12 +22427,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22553,12 +22553,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22805,12 +22805,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22973,12 +22973,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23225,12 +23225,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -23267,12 +23267,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24447,12 +24447,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24699,12 +24699,12 @@
       <c r="H575" t="inlineStr"/>
       <c r="I575" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25333,12 +25333,12 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25795,12 +25795,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26173,12 +26173,12 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26803,12 +26803,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27353,12 +27353,12 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29495,12 +29495,12 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29579,12 +29579,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29831,12 +29831,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29915,12 +29915,12 @@
       <c r="H699" t="inlineStr"/>
       <c r="I699" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31011,12 +31011,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32149,12 +32149,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32275,12 +32275,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32695,12 +32695,12 @@
       <c r="H765" t="inlineStr"/>
       <c r="I765" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33035,12 +33035,12 @@
       <c r="H773" t="inlineStr"/>
       <c r="I773" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33287,12 +33287,12 @@
       </c>
       <c r="I779" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33329,12 +33329,12 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33371,12 +33371,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33833,12 +33833,12 @@
       <c r="H792" t="inlineStr"/>
       <c r="I792" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34673,12 +34673,12 @@
       <c r="H812" t="inlineStr"/>
       <c r="I812" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34887,12 +34887,12 @@
       <c r="H817" t="inlineStr"/>
       <c r="I817" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35139,12 +35139,12 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35181,12 +35181,12 @@
       </c>
       <c r="I824" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36911,12 +36911,12 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37331,12 +37331,12 @@
       <c r="H875" t="inlineStr"/>
       <c r="I875" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37373,12 +37373,12 @@
       <c r="H876" t="inlineStr"/>
       <c r="I876" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -37499,12 +37499,12 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37797,12 +37797,12 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37965,12 +37965,12 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38007,12 +38007,12 @@
       <c r="H891" t="inlineStr"/>
       <c r="I891" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38049,12 +38049,12 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38343,12 +38343,12 @@
       <c r="H899" t="inlineStr"/>
       <c r="I899" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38385,12 +38385,12 @@
       <c r="H900" t="inlineStr"/>
       <c r="I900" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
